--- a/Output Data Structure.xlsx
+++ b/Output Data Structure.xlsx
@@ -1357,13 +1357,13 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>0.9999888890123443</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.01906779257038293</v>
+        <v>0.03813558514076586</v>
       </c>
       <c r="G2">
         <v>52.44444444444444</v>
@@ -1401,13 +1401,13 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>0.5483853277892652</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.02530612038317385</v>
+        <v>0.0391836702707208</v>
       </c>
       <c r="G3">
         <v>31.41025641025641</v>
@@ -1445,13 +1445,13 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>0.7647013841095053</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.03300970232821314</v>
+        <v>0.05825241587331731</v>
       </c>
       <c r="G4">
         <v>46.81818181818182</v>
@@ -1489,13 +1489,13 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>0.4499988750028124</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0464037069137231</v>
+        <v>0.06728537502489849</v>
       </c>
       <c r="G5">
         <v>28.73333333333333</v>
@@ -1533,13 +1533,13 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>0.9999833336111065</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.01284796298758823</v>
+        <v>0.02569592597517645</v>
       </c>
       <c r="G6">
         <v>38.91666666666666</v>
@@ -1577,13 +1577,13 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>0.9999888890123443</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.01906779257038293</v>
+        <v>0.03813558514076586</v>
       </c>
       <c r="G7">
         <v>52.44444444444444</v>
@@ -1621,13 +1621,13 @@
         <v>24</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>0.5483853277892652</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.02530612038317385</v>
+        <v>0.0391836702707208</v>
       </c>
       <c r="G8">
         <v>31.41025641025641</v>
@@ -1665,13 +1665,13 @@
         <v>15</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>0.7647013841095053</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03300970232821314</v>
+        <v>0.05825241587331731</v>
       </c>
       <c r="G9">
         <v>46.81818181818182</v>
@@ -1709,13 +1709,13 @@
         <v>29</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>0.4499988750028124</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0464037069137231</v>
+        <v>0.06728537502489849</v>
       </c>
       <c r="G10">
         <v>28.73333333333333</v>
@@ -1753,13 +1753,13 @@
         <v>72</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="E11">
-        <v>0.5483865071112827</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.04204339773764024</v>
+        <v>0.06509945456150747</v>
       </c>
       <c r="G11">
         <v>21.47572815533981</v>
@@ -1797,13 +1797,13 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>0.5862048751556029</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.03737112920475139</v>
+        <v>0.05927834287650221</v>
       </c>
       <c r="G12">
         <v>31.04</v>
@@ -1841,13 +1841,13 @@
         <v>31</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E13">
-        <v>0.8787852158023762</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.03590859239297145</v>
+        <v>0.06746462813224939</v>
       </c>
       <c r="G13">
         <v>31.68965517241379</v>
@@ -1885,13 +1885,13 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>0.6666644444518518</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.04335259489124352</v>
+        <v>0.0722543248187392</v>
       </c>
       <c r="G14">
         <v>32.95238095238095</v>
@@ -1929,13 +1929,13 @@
         <v>17</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E15">
-        <v>0.5454520661269722</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03183791145616332</v>
+        <v>0.04920404497770695</v>
       </c>
       <c r="G15">
         <v>38.38888888888889</v>
@@ -1973,13 +1973,13 @@
         <v>69</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E16">
-        <v>0.4680846084206293</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.05575325885211988</v>
+        <v>0.08185052895311216</v>
       </c>
       <c r="G16">
         <v>24.43478260869565</v>
@@ -2017,13 +2017,13 @@
         <v>12</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>0.8461473373281744</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02056961699847832</v>
+        <v>0.03797467753565229</v>
       </c>
       <c r="G17">
         <v>37.1764705882353</v>
@@ -2061,13 +2061,13 @@
         <v>45</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E18">
-        <v>0.7647043829325825</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04450261391774748</v>
+        <v>0.07853402456073084</v>
       </c>
       <c r="G18">
         <v>29.38461538461538</v>
@@ -2105,13 +2105,13 @@
         <v>9</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>0.4999958333680553</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0247422629397396</v>
+        <v>0.0371133944096094</v>
       </c>
       <c r="G19">
         <v>37.30769230769231</v>
@@ -2149,13 +2149,13 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E20">
-        <v>0.5652149338481137</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.03146374398580794</v>
+        <v>0.04924759928213417</v>
       </c>
       <c r="G20">
         <v>43</v>
@@ -2193,13 +2193,13 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>0.5483853277892652</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.04836192693261671</v>
+        <v>0.07488298363760006</v>
       </c>
       <c r="G21">
         <v>33.73684210526316</v>
@@ -2237,13 +2237,13 @@
         <v>16</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E22">
-        <v>0.8823477508955829</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.03003533038245046</v>
+        <v>0.05653709248461264</v>
       </c>
       <c r="G22">
         <v>37.73333333333333</v>
@@ -2281,13 +2281,13 @@
         <v>15</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>0.7647013841095053</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.0295652122495283</v>
+        <v>0.05217390396975583</v>
       </c>
       <c r="G23">
         <v>38.33333333333334</v>
@@ -2325,13 +2325,13 @@
         <v>15</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>0.7647013841095053</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.03019537651947131</v>
+        <v>0.0532859585637729</v>
       </c>
       <c r="G24">
         <v>37.53333333333333</v>
@@ -2369,13 +2369,13 @@
         <v>21</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>0.9090867768782869</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.03956833820713342</v>
+        <v>0.07553955475907288</v>
       </c>
       <c r="G25">
         <v>37.06666666666667</v>
@@ -2413,13 +2413,13 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>0.8461505917284934</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.04634580279040949</v>
+        <v>0.08556148207460212</v>
       </c>
       <c r="G26">
         <v>37.4</v>
@@ -2457,13 +2457,13 @@
         <v>19</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E27">
-        <v>0.3571415816372084</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.04643448649511003</v>
+        <v>0.06301823167193504</v>
       </c>
       <c r="G27">
         <v>40.2</v>
@@ -2501,13 +2501,13 @@
         <v>13</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E28">
-        <v>0.9999923077514788</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.02177554074111545</v>
+        <v>0.04355108148223091</v>
       </c>
       <c r="G28">
         <v>39.8</v>
@@ -2545,13 +2545,13 @@
         <v>21</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E29">
-        <v>0.8260833648549354</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.03002610574071727</v>
+        <v>0.05483028004826632</v>
       </c>
       <c r="G29">
         <v>40.31578947368421</v>
@@ -2589,13 +2589,13 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E30">
-        <v>0.6363607438148009</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.02981029406364579</v>
+        <v>0.04878048119505675</v>
       </c>
       <c r="G30">
         <v>35.14285714285715</v>
@@ -2633,13 +2633,13 @@
         <v>25</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E31">
-        <v>0.5151499540910481</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.03333332996633031</v>
+        <v>0.05050504540353077</v>
       </c>
       <c r="G31">
         <v>29.11764705882353</v>
@@ -2677,13 +2677,13 @@
         <v>13</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E32">
-        <v>0.4444419753223594</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.0259365956863695</v>
+        <v>0.03746397154697816</v>
       </c>
       <c r="G32">
         <v>30.17391304347826</v>
@@ -2721,13 +2721,13 @@
         <v>53</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E33">
-        <v>0.6060596877883518</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.0629770932273766</v>
+        <v>0.1011450285166958</v>
       </c>
       <c r="G33">
         <v>30.82352941176471</v>
@@ -2765,13 +2765,13 @@
         <v>24</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E34">
-        <v>0.7142831632744169</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.02413792895362682</v>
+        <v>0.04137930677764597</v>
       </c>
       <c r="G34">
         <v>35.15151515151515</v>
@@ -2809,13 +2809,13 @@
         <v>24</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E35">
-        <v>0.5999980000066667</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.04531721369830609</v>
+        <v>0.07250754191728974</v>
       </c>
       <c r="G35">
         <v>33.1</v>
@@ -2853,13 +2853,13 @@
         <v>45</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E36">
-        <v>0.2676052568940044</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.0348380748362083</v>
+        <v>0.04416093993322179</v>
       </c>
       <c r="G36">
         <v>18.87037037037037</v>
@@ -2941,13 +2941,13 @@
         <v>29</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E38">
-        <v>0.6571409795972011</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.02696455878547313</v>
+        <v>0.04468412598735547</v>
       </c>
       <c r="G38">
         <v>21.63333333333333</v>
@@ -2985,13 +2985,13 @@
         <v>18</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E39">
-        <v>0.8947321329887737</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.02814814397805274</v>
+        <v>0.05333332543209994</v>
       </c>
       <c r="G39">
         <v>37.5</v>
@@ -3029,13 +3029,13 @@
         <v>61</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="E40">
-        <v>0.9062485839865875</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.04238410315337066</v>
+        <v>0.0807946966361128</v>
       </c>
       <c r="G40">
         <v>17.15909090909091</v>
@@ -3073,13 +3073,13 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>0.9999750006249845</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.01257861239666277</v>
+        <v>0.02515722479332554</v>
       </c>
       <c r="G41">
         <v>79.5</v>
@@ -3117,13 +3117,13 @@
         <v>15</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E42">
-        <v>0.7647013841095053</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.02685623588369102</v>
+        <v>0.04739335744180767</v>
       </c>
       <c r="G42">
         <v>48.69230769230769</v>
@@ -3161,13 +3161,13 @@
         <v>17</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E43">
-        <v>0.8888839506447187</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.03389829870088537</v>
+        <v>0.06403011976833903</v>
       </c>
       <c r="G43">
         <v>35.4</v>
@@ -3205,13 +3205,13 @@
         <v>10</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>0.818174380232907</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.01845637274221934</v>
+        <v>0.03355704134948971</v>
       </c>
       <c r="G44">
         <v>39.73333333333333</v>
@@ -3249,13 +3249,13 @@
         <v>17</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E45">
-        <v>0.6190446712158514</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.03101919778150698</v>
+        <v>0.05022155831291605</v>
       </c>
       <c r="G45">
         <v>25.07407407407407</v>
@@ -3293,13 +3293,13 @@
         <v>24</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E46">
-        <v>0.4999984375048828</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.0441988889228054</v>
+        <v>0.0662983333842081</v>
       </c>
       <c r="G46">
         <v>24.13333333333333</v>
@@ -3337,13 +3337,13 @@
         <v>10</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E47">
-        <v>0.4285683673688045</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.02089551926932548</v>
+        <v>0.02985074181332212</v>
       </c>
       <c r="G47">
         <v>25.76923076923077</v>
@@ -3381,13 +3381,13 @@
         <v>11</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E48">
-        <v>0.69230236690487</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.02434456472948226</v>
+        <v>0.04119849415758536</v>
       </c>
       <c r="G48">
         <v>41.07692307692308</v>
@@ -3425,13 +3425,13 @@
         <v>9</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E49">
-        <v>0.7999920000799993</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.025062650360238</v>
+        <v>0.04511277064842841</v>
       </c>
       <c r="G49">
         <v>66.5</v>
@@ -3469,13 +3469,13 @@
         <v>11</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E50">
-        <v>0.5714244898250727</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.03655351526017878</v>
+        <v>0.05744123826599523</v>
       </c>
       <c r="G50">
         <v>42.55555555555556</v>
@@ -3513,13 +3513,13 @@
         <v>10</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E51">
-        <v>0.818174380232907</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.02749999312500172</v>
+        <v>0.04999998750000312</v>
       </c>
       <c r="G51">
         <v>50</v>
@@ -3557,13 +3557,13 @@
         <v>13</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E52">
-        <v>0.7333284444770368</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.02912620793665865</v>
+        <v>0.05048542709020833</v>
       </c>
       <c r="G52">
         <v>42.91666666666666</v>
@@ -3601,13 +3601,13 @@
         <v>17</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E53">
-        <v>0.8888839506447187</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.02941175990003923</v>
+        <v>0.05555554647785189</v>
       </c>
       <c r="G53">
         <v>34</v>
@@ -3645,13 +3645,13 @@
         <v>10</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E54">
-        <v>0.666661111157407</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.02970296294481116</v>
+        <v>0.04950493824135192</v>
       </c>
       <c r="G54">
         <v>40.4</v>
@@ -3689,13 +3689,13 @@
         <v>9</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E55">
-        <v>0.3846124260582611</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.01984732521414882</v>
+        <v>0.02748091183497529</v>
       </c>
       <c r="G55">
         <v>27.29166666666667</v>
@@ -3733,13 +3733,13 @@
         <v>14</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E56">
-        <v>0.5555524691529492</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.02545968522493844</v>
+        <v>0.03960395479434869</v>
       </c>
       <c r="G56">
         <v>41.58823529411764</v>
@@ -3777,13 +3777,13 @@
         <v>16</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E57">
-        <v>0.3333319444502315</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.04878047789014677</v>
+        <v>0.06504063718686236</v>
       </c>
       <c r="G57">
         <v>44.72727272727273</v>
@@ -3821,13 +3821,13 @@
         <v>19</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E58">
-        <v>0.6521710775170543</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.033823524437717</v>
+        <v>0.0558823447231846</v>
       </c>
       <c r="G58">
         <v>37.77777777777778</v>
@@ -3865,13 +3865,13 @@
         <v>17</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E59">
-        <v>0.5454520661269722</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.03147352911680557</v>
+        <v>0.04864090863506314</v>
       </c>
       <c r="G59">
         <v>26.88461538461538</v>
@@ -3909,13 +3909,13 @@
         <v>11</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E60">
-        <v>0.3749976562646484</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.03516482743630166</v>
+        <v>0.04835163772491479</v>
       </c>
       <c r="G60">
         <v>32.5</v>
@@ -3953,13 +3953,13 @@
         <v>10</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>0.818174380232907</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.02941175684177625</v>
+        <v>0.05347592153050227</v>
       </c>
       <c r="G61">
         <v>41.55555555555556</v>
@@ -3997,13 +3997,13 @@
         <v>10</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E62">
-        <v>0.4285683673688045</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.03535352642587717</v>
+        <v>0.0505050377512531</v>
       </c>
       <c r="G62">
         <v>44</v>
@@ -4041,13 +4041,13 @@
         <v>12</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>0.4999968750195312</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.03836929535508505</v>
+        <v>0.05755394303262757</v>
       </c>
       <c r="G63">
         <v>37.90909090909091</v>
@@ -4085,13 +4085,13 @@
         <v>11</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E64">
-        <v>0.8333263889467588</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.03191488512901992</v>
+        <v>0.05851062273653651</v>
       </c>
       <c r="G64">
         <v>41.77777777777778</v>
@@ -4129,13 +4129,13 @@
         <v>10</v>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E65">
-        <v>0.1111104938305898</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.03973509056620517</v>
+        <v>0.04415010062911686</v>
       </c>
       <c r="G65">
         <v>30.2</v>
@@ -4173,13 +4173,13 @@
         <v>17</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E66">
-        <v>0.7894695291077416</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.03074433159476835</v>
+        <v>0.0550161723274802</v>
       </c>
       <c r="G66">
         <v>29.42857142857143</v>
@@ -4217,13 +4217,13 @@
         <v>16</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E67">
-        <v>0.5999970000149999</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.03012047739149437</v>
+        <v>0.04819276382639099</v>
       </c>
       <c r="G67">
         <v>28.8695652173913</v>
@@ -4261,13 +4261,13 @@
         <v>11</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E68">
-        <v>0.3749976562646484</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.02446482806348195</v>
+        <v>0.03363913858728768</v>
       </c>
       <c r="G68">
         <v>32.7</v>
@@ -4305,13 +4305,13 @@
         <v>26</v>
       </c>
       <c r="D69">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E69">
-        <v>0.3333324786346701</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.05051812817122692</v>
+        <v>0.06735750422830257</v>
       </c>
       <c r="G69">
         <v>27.57142857142857</v>
@@ -4349,13 +4349,13 @@
         <v>11</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E70">
-        <v>0.8333263889467588</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.01832060788998353</v>
+        <v>0.03358778113163647</v>
       </c>
       <c r="G70">
         <v>29.77272727272727</v>
@@ -4393,13 +4393,13 @@
         <v>15</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E71">
-        <v>0.9999933333777775</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.02617800590261677</v>
+        <v>0.05235601180523355</v>
       </c>
       <c r="G71">
         <v>38.2</v>
@@ -4437,13 +4437,13 @@
         <v>30</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E72">
-        <v>0.7647036332246081</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.03238094929705245</v>
+        <v>0.05714285170068079</v>
       </c>
       <c r="G72">
         <v>28.37837837837838</v>
@@ -4481,13 +4481,13 @@
         <v>10</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E73">
-        <v>0.666661111157407</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.02264150516198016</v>
+        <v>0.0377358419366336</v>
       </c>
       <c r="G73">
         <v>58.88888888888889</v>
@@ -4525,13 +4525,13 @@
         <v>13</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E74">
-        <v>0.9999923077514788</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.0201550356348782</v>
+        <v>0.04031007126975639</v>
       </c>
       <c r="G74">
         <v>33.94736842105263</v>
@@ -4569,13 +4569,13 @@
         <v>6</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E75">
-        <v>0.7142755103498521</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.02011493674858139</v>
+        <v>0.03448274871185382</v>
       </c>
       <c r="G75">
         <v>69.59999999999999</v>
@@ -4613,13 +4613,13 @@
         <v>12</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E76">
-        <v>0.7142806122813409</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.022727269037781</v>
+        <v>0.03896103263619601</v>
       </c>
       <c r="G76">
         <v>36.23529411764706</v>
@@ -4657,13 +4657,13 @@
         <v>12</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E77">
-        <v>0.7142806122813409</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.02616821940780946</v>
+        <v>0.04485980469910193</v>
       </c>
       <c r="G77">
         <v>35.66666666666666</v>
@@ -4701,13 +4701,13 @@
         <v>6</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E78">
-        <v>0.9999833336111065</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.01558441153651649</v>
+        <v>0.03116882307303297</v>
       </c>
       <c r="G78">
         <v>55</v>
@@ -4745,13 +4745,13 @@
         <v>6</v>
       </c>
       <c r="D79">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E79">
-        <v>-0.07692248521165222</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.02974827694547438</v>
+        <v>0.02745994794966866</v>
       </c>
       <c r="G79">
         <v>36.41666666666666</v>
@@ -4789,13 +4789,13 @@
         <v>6</v>
       </c>
       <c r="D80">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E80">
-        <v>-0.3333314814917695</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.03383458010628194</v>
+        <v>0.02255638673752129</v>
       </c>
       <c r="G80">
         <v>35.46666666666667</v>
@@ -4833,13 +4833,13 @@
         <v>6</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E81">
-        <v>0.9999833336111065</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.01038062104141504</v>
+        <v>0.02076124208283009</v>
       </c>
       <c r="G81">
         <v>57.8</v>
@@ -4877,13 +4877,13 @@
         <v>6</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E82">
-        <v>0.9999833336111065</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.01759530275797573</v>
+        <v>0.03519060551595146</v>
       </c>
       <c r="G82">
         <v>56.83333333333334</v>
@@ -4921,13 +4921,13 @@
         <v>15</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E83">
-        <v>0.8749945312841795</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.03455722795740217</v>
+        <v>0.06479480242012907</v>
       </c>
       <c r="G83">
         <v>66.14285714285714</v>
@@ -4965,13 +4965,13 @@
         <v>12</v>
       </c>
       <c r="D84">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E84">
-        <v>0.3333314814917695</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.03231597265422394</v>
+        <v>0.04308796353896525</v>
       </c>
       <c r="G84">
         <v>27.85</v>
@@ -5009,13 +5009,13 @@
         <v>17</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E85">
-        <v>0.6999965000174999</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.03448275267538747</v>
+        <v>0.0586206795481587</v>
       </c>
       <c r="G85">
         <v>34.11764705882353</v>
@@ -5053,13 +5053,13 @@
         <v>6</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E86">
-        <v>0.9999833336111065</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0.01217038292690002</v>
+        <v>0.02434076585380003</v>
       </c>
       <c r="G86">
         <v>44.81818181818182</v>
@@ -5097,13 +5097,13 @@
         <v>7</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E87">
-        <v>0.999985714489793</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.01955306716394772</v>
+        <v>0.03910613432789544</v>
       </c>
       <c r="G87">
         <v>71.59999999999999</v>
@@ -5141,13 +5141,13 @@
         <v>7</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E88">
-        <v>0.5555493827846357</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.01931330057654494</v>
+        <v>0.0300429120079588</v>
       </c>
       <c r="G88">
         <v>35.84615384615385</v>
@@ -5185,13 +5185,13 @@
         <v>9</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E89">
-        <v>0.636357851292261</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.02063789481465388</v>
+        <v>0.03377110060579726</v>
       </c>
       <c r="G89">
         <v>31.35294117647059</v>
@@ -5229,13 +5229,13 @@
         <v>6</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E90">
-        <v>0.7142755103498521</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.01531728330037565</v>
+        <v>0.02625819994350111</v>
       </c>
       <c r="G90">
         <v>32.64285714285715</v>
@@ -5273,13 +5273,13 @@
         <v>11</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E91">
-        <v>0.8333263889467588</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.02948402223979798</v>
+        <v>0.05405404077296296</v>
       </c>
       <c r="G91">
         <v>81.40000000000001</v>
@@ -5317,13 +5317,13 @@
         <v>5</v>
       </c>
       <c r="D92">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E92">
-        <v>-0.2307674556349567</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0.02736841529085994</v>
+        <v>0.02105262714681534</v>
       </c>
       <c r="G92">
         <v>79.16666666666667</v>
@@ -5361,13 +5361,13 @@
         <v>28</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E93">
-        <v>0.8666637777874073</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0.02570693867121348</v>
+        <v>0.0479862855195985</v>
       </c>
       <c r="G93">
         <v>34.3235294117647</v>
@@ -5405,13 +5405,13 @@
         <v>26</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E94">
-        <v>0.925922496583346</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.02282332858636276</v>
+        <v>0.04395604024040235</v>
       </c>
       <c r="G94">
         <v>32.86111111111111</v>
@@ -5449,13 +5449,13 @@
         <v>5</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E95">
-        <v>0.999980000399992</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0.01567397627775038</v>
+        <v>0.03134795255550077</v>
       </c>
       <c r="G95">
         <v>53.16666666666666</v>
@@ -5493,13 +5493,13 @@
         <v>12</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E96">
-        <v>0.5999960000266665</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.02636203403127697</v>
+        <v>0.04217925445004315</v>
       </c>
       <c r="G96">
         <v>31.61111111111111</v>
@@ -5537,13 +5537,13 @@
         <v>10</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E97">
-        <v>0.5384573964815655</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.02995391014886863</v>
+        <v>0.04608293869056712</v>
       </c>
       <c r="G97">
         <v>39.45454545454545</v>
@@ -5581,13 +5581,13 @@
         <v>8</v>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E98">
-        <v>0.2307674556349567</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0.0228070135426292</v>
+        <v>0.02807017051400517</v>
       </c>
       <c r="G98">
         <v>38</v>
@@ -5625,13 +5625,13 @@
         <v>7</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E99">
-        <v>0.7499906251171861</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.01629327570401717</v>
+        <v>0.02851323248203005</v>
       </c>
       <c r="G99">
         <v>40.91666666666666</v>
@@ -5669,13 +5669,13 @@
         <v>11</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E100">
-        <v>0.69230236690487</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0.02003081355457418</v>
+        <v>0.03389829986158708</v>
       </c>
       <c r="G100">
         <v>38.1764705882353</v>
@@ -5713,13 +5713,13 @@
         <v>9</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E101">
-        <v>0.9999888890123443</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.01882844794383934</v>
+        <v>0.03765689588767868</v>
       </c>
       <c r="G101">
         <v>26.55555555555556</v>
@@ -5757,13 +5757,13 @@
         <v>10</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E102">
-        <v>0.5384573964815655</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0.02218429655558079</v>
+        <v>0.03412968700858584</v>
       </c>
       <c r="G102">
         <v>30.84210526315789</v>
@@ -5801,13 +5801,13 @@
         <v>5</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E103">
-        <v>0.6666555557407376</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.01591511514187927</v>
+        <v>0.02652519190313212</v>
       </c>
       <c r="G103">
         <v>47.125</v>
@@ -5845,13 +5845,13 @@
         <v>8</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E104">
-        <v>0.5999940000599994</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.01828153230684967</v>
+        <v>0.02925045169095947</v>
       </c>
       <c r="G104">
         <v>36.46666666666667</v>
@@ -5889,13 +5889,13 @@
         <v>5</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E105">
-        <v>0.999980000399992</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.01798560504114927</v>
+        <v>0.03597121008229853</v>
       </c>
       <c r="G105">
         <v>69.5</v>
@@ -5933,13 +5933,13 @@
         <v>28</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E106">
-        <v>0.8064490114548017</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0.03444444061728438</v>
+        <v>0.06222221530864275</v>
       </c>
       <c r="G106">
         <v>27.27272727272727</v>
@@ -5977,13 +5977,13 @@
         <v>17</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E107">
-        <v>0.9999941176816607</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.02819236680060252</v>
+        <v>0.05638473360120504</v>
       </c>
       <c r="G107">
         <v>33.5</v>
@@ -6021,13 +6021,13 @@
         <v>6</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E108">
-        <v>0.499993750078124</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.01401050542723197</v>
+        <v>0.02101575814084796</v>
       </c>
       <c r="G108">
         <v>30.05263157894737</v>
@@ -6065,13 +6065,13 @@
         <v>10</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E109">
-        <v>0.9999900000999991</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0.02564101906640537</v>
+        <v>0.05128203813281074</v>
       </c>
       <c r="G109">
         <v>43.33333333333334</v>
@@ -6109,13 +6109,13 @@
         <v>17</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E110">
-        <v>0.6190446712158514</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.03602057701190789</v>
+        <v>0.05831902944785087</v>
       </c>
       <c r="G110">
         <v>25.34782608695652</v>
@@ -6153,13 +6153,13 @@
         <v>13</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E111">
-        <v>0.6249960937744139</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.02649006183939374</v>
+        <v>0.04304635048901482</v>
       </c>
       <c r="G111">
         <v>43.14285714285715</v>
@@ -6197,13 +6197,13 @@
         <v>17</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E112">
-        <v>0.7894695291077416</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.02442159069131225</v>
+        <v>0.04370179386866403</v>
       </c>
       <c r="G112">
         <v>40.94736842105263</v>
@@ -6241,13 +6241,13 @@
         <v>13</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E113">
-        <v>0.7333284444770368</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.02650176210216217</v>
+        <v>0.04593638764374777</v>
       </c>
       <c r="G113">
         <v>37.73333333333333</v>
@@ -6285,13 +6285,13 @@
         <v>24</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E114">
-        <v>0.9999958333506944</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0.03966941493067522</v>
+        <v>0.07933882986135044</v>
       </c>
       <c r="G114">
         <v>55</v>
@@ -6329,13 +6329,13 @@
         <v>5</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E115">
-        <v>0.999980000399992</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.01466275229831311</v>
+        <v>0.02932550459662622</v>
       </c>
       <c r="G115">
         <v>56.83333333333334</v>
@@ -6373,13 +6373,13 @@
         <v>10</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E116">
-        <v>0.666661111157407</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.02721087818347434</v>
+        <v>0.04535146363912389</v>
       </c>
       <c r="G116">
         <v>31.5</v>
@@ -6417,13 +6417,13 @@
         <v>5</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E117">
-        <v>0.4285653062099113</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.01772151450088241</v>
+        <v>0.02531644928697487</v>
       </c>
       <c r="G117">
         <v>56.42857142857143</v>
@@ -6461,13 +6461,13 @@
         <v>13</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E118">
-        <v>0.9999923077514788</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.0211038926779395</v>
+        <v>0.042207785355879</v>
       </c>
       <c r="G118">
         <v>44</v>
@@ -6505,13 +6505,13 @@
         <v>9</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E119">
-        <v>0.9999888890123443</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.01627486143311728</v>
+        <v>0.03254972286623457</v>
       </c>
       <c r="G119">
         <v>30.72222222222222</v>
@@ -6549,13 +6549,13 @@
         <v>4</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E120">
-        <v>0.9999750006249845</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.01257861239666277</v>
+        <v>0.02515722479332554</v>
       </c>
       <c r="G120">
         <v>79.5</v>
@@ -6593,13 +6593,13 @@
         <v>7</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E121">
-        <v>0.999985714489793</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.02005730084318028</v>
+        <v>0.04011460168636055</v>
       </c>
       <c r="G121">
         <v>38.77777777777778</v>
@@ -6637,13 +6637,13 @@
         <v>12</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E122">
-        <v>0.9999916667361105</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.03157893905817393</v>
+        <v>0.06315787811634786</v>
       </c>
       <c r="G122">
         <v>42.22222222222222</v>
@@ -6681,13 +6681,13 @@
         <v>8</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E123">
-        <v>0.5999940000599994</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0.02941175605536587</v>
+        <v>0.04705880968858539</v>
       </c>
       <c r="G123">
         <v>68</v>
@@ -6725,13 +6725,13 @@
         <v>8</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E124">
-        <v>0.454541322351615</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.03293412187601142</v>
+        <v>0.04790417727419843</v>
       </c>
       <c r="G124">
         <v>33.4</v>
@@ -6769,13 +6769,13 @@
         <v>7</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E125">
-        <v>0.7499906251171861</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>0.02453986977304608</v>
+        <v>0.04294477210283065</v>
       </c>
       <c r="G125">
         <v>36.22222222222222</v>
@@ -6813,13 +6813,13 @@
         <v>14</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E126">
-        <v>0.9999928571938772</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0.02430555133584178</v>
+        <v>0.04861110267168357</v>
       </c>
       <c r="G126">
         <v>33.88235294117647</v>
@@ -6857,13 +6857,13 @@
         <v>5</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E127">
-        <v>0.999980000399992</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0.01187648173955303</v>
+        <v>0.02375296347910606</v>
       </c>
       <c r="G127">
         <v>42.1</v>
@@ -6901,13 +6901,13 @@
         <v>7</v>
       </c>
       <c r="D128">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E128">
-        <v>-0.06666622222518517</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0.02164501852164235</v>
+        <v>0.02020201728686619</v>
       </c>
       <c r="G128">
         <v>38.5</v>
@@ -6945,13 +6945,13 @@
         <v>14</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E129">
-        <v>0.6470550173234275</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>0.03534302799521247</v>
+        <v>0.05821204610976172</v>
       </c>
       <c r="G129">
         <v>37</v>
@@ -6989,13 +6989,13 @@
         <v>17</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E130">
-        <v>0.7894695291077416</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.02861445352191965</v>
+        <v>0.05120481156554043</v>
       </c>
       <c r="G130">
         <v>30.18181818181818</v>
@@ -7033,13 +7033,13 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E131">
-        <v>0.6249960937744139</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0.0295202897564041</v>
+        <v>0.04797047085415667</v>
       </c>
       <c r="G131">
         <v>33.875</v>
@@ -7077,13 +7077,13 @@
         <v>10</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E132">
-        <v>0.9999900000999991</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.01694914966963565</v>
+        <v>0.0338982993392713</v>
       </c>
       <c r="G132">
         <v>34.70588235294117</v>
@@ -7121,13 +7121,13 @@
         <v>8</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E133">
-        <v>0.7777691358984901</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0.01578947091412791</v>
+        <v>0.02807017051400517</v>
       </c>
       <c r="G133">
         <v>35.625</v>
@@ -7165,13 +7165,13 @@
         <v>7</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E134">
-        <v>0.999985714489793</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>0.01732672838447317</v>
+        <v>0.03465345676894634</v>
       </c>
       <c r="G134">
         <v>36.72727272727273</v>
@@ -7209,13 +7209,13 @@
         <v>6</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E135">
-        <v>0.499993750078124</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.01999999500000125</v>
+        <v>0.02999999250000188</v>
       </c>
       <c r="G135">
         <v>57.14285714285715</v>
@@ -7253,13 +7253,13 @@
         <v>8</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E136">
-        <v>0.999987500156248</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.02077921538202198</v>
+        <v>0.04155843076404396</v>
       </c>
       <c r="G136">
         <v>38.5</v>
@@ -7297,13 +7297,13 @@
         <v>8</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E137">
-        <v>0.999987500156248</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.0205128152531243</v>
+        <v>0.04102563050624859</v>
       </c>
       <c r="G137">
         <v>43.33333333333334</v>
@@ -7341,13 +7341,13 @@
         <v>7</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E138">
-        <v>0.999985714489793</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.01749999562500109</v>
+        <v>0.03499999125000219</v>
       </c>
       <c r="G138">
         <v>36.36363636363637</v>
@@ -7385,13 +7385,13 @@
         <v>6</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E139">
-        <v>0.9999833336111065</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.0163487693872563</v>
+        <v>0.0326975387745126</v>
       </c>
       <c r="G139">
         <v>52.42857142857143</v>
@@ -7429,13 +7429,13 @@
         <v>8</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E140">
-        <v>0.999987500156248</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.02216065868125798</v>
+        <v>0.04432131736251597</v>
       </c>
       <c r="G140">
         <v>45.125</v>
@@ -7473,13 +7473,13 @@
         <v>8</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E141">
-        <v>0.5999940000599994</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.0199999960000008</v>
+        <v>0.03199999360000128</v>
       </c>
       <c r="G141">
         <v>35.71428571428572</v>
@@ -7517,13 +7517,13 @@
         <v>19</v>
       </c>
       <c r="D142">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E142">
-        <v>0.3103437574353192</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.02378998984495571</v>
+        <v>0.03117309014166611</v>
       </c>
       <c r="G142">
         <v>23.90196078431373</v>
@@ -7561,13 +7561,13 @@
         <v>13</v>
       </c>
       <c r="D143">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E143">
-        <v>0.2999985000074999</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.0260416632758251</v>
+        <v>0.03385416225857262</v>
       </c>
       <c r="G143">
         <v>32</v>
@@ -7605,13 +7605,13 @@
         <v>18</v>
       </c>
       <c r="D144">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E144">
-        <v>0.3333320987700046</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.02267002328547244</v>
+        <v>0.03022669771396325</v>
       </c>
       <c r="G144">
         <v>32.18918918918919</v>
@@ -7649,13 +7649,13 @@
         <v>27</v>
       </c>
       <c r="D145">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E145">
-        <v>0.1739126654072491</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>0.02634593205349759</v>
+        <v>0.03092783328019283</v>
       </c>
       <c r="G145">
         <v>25.67647058823529</v>
@@ -7693,13 +7693,13 @@
         <v>12</v>
       </c>
       <c r="D146">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E146">
-        <v>0.2631565097025805</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.03696497335311803</v>
+        <v>0.04669259791972803</v>
       </c>
       <c r="G146">
         <v>36.71428571428572</v>
@@ -7737,13 +7737,13 @@
         <v>4</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E147">
-        <v>0.9999750006249845</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.01498126779727798</v>
+        <v>0.02996253559455596</v>
       </c>
       <c r="G147">
         <v>66.75</v>
@@ -7781,13 +7781,13 @@
         <v>6</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E148">
-        <v>0.9999833336111065</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.01595744256450996</v>
+        <v>0.03191488512901992</v>
       </c>
       <c r="G148">
         <v>37.6</v>
